--- a/runs/run666/NotionalETEOutput666.xlsx
+++ b/runs/run666/NotionalETEOutput666.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND1_State_Update</t>
+    <t>Missile_ANGERMAX1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1_394.MISSILE_HIGHWIND1_394</t>
+    <t>MISSILE_ANGERMAX1_213.MISSILE_ANGERMAX1_213</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1</t>
+    <t>MISSILE_ANGERMAX1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1468.91044146412</v>
+        <v>-1571.594396095773</v>
       </c>
       <c r="J2">
-        <v>1958.275013033947</v>
+        <v>2045.008887212363</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1411.293572361193</v>
+        <v>-1464.81306297964</v>
       </c>
       <c r="J3">
-        <v>1938.308566985134</v>
+        <v>1941.750184311983</v>
       </c>
       <c r="K3">
-        <v>318.7754211600223</v>
+        <v>308.6397530172145</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1452.381390589574</v>
+        <v>-1411.157858494359</v>
       </c>
       <c r="J4">
-        <v>1854.834696716159</v>
+        <v>1951.311979618519</v>
       </c>
       <c r="K4">
-        <v>589.5123499641235</v>
+        <v>620.4097469499198</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1384.63517508496</v>
+        <v>-1446.971851358222</v>
       </c>
       <c r="J5">
-        <v>1915.445635346056</v>
+        <v>1882.734098830512</v>
       </c>
       <c r="K5">
-        <v>904.4600176712954</v>
+        <v>849.7528534186317</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1387.567962125912</v>
+        <v>-1366.499165005282</v>
       </c>
       <c r="J6">
-        <v>1727.131712375245</v>
+        <v>1751.687966015308</v>
       </c>
       <c r="K6">
-        <v>1145.222618862906</v>
+        <v>1073.122810171367</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1364.275982770022</v>
+        <v>-1298.645283717247</v>
       </c>
       <c r="J7">
-        <v>1725.978552941273</v>
+        <v>1768.063477334616</v>
       </c>
       <c r="K7">
-        <v>1432.90504652157</v>
+        <v>1384.587617033298</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1340.929601734362</v>
+        <v>-1308.002879705025</v>
       </c>
       <c r="J8">
-        <v>1677.700630545732</v>
+        <v>1658.989678920485</v>
       </c>
       <c r="K8">
-        <v>1521.368188145743</v>
+        <v>1552.256602202675</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-96.12602748625288</v>
+        <v>-101.6420794059366</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1305.580823270374</v>
+        <v>-1334.120280702233</v>
       </c>
       <c r="J9">
-        <v>1658.021783539334</v>
+        <v>1713.299144525275</v>
       </c>
       <c r="K9">
-        <v>1824.602879803558</v>
+        <v>1816.899789391982</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>226.3351200537639</v>
+        <v>213.8316850892165</v>
       </c>
       <c r="G10">
-        <v>-84.8330097333906</v>
+        <v>-79.5378427809913</v>
       </c>
       <c r="H10">
-        <v>874.5448989637057</v>
+        <v>847.9421379953884</v>
       </c>
       <c r="I10">
-        <v>-1225.935379294419</v>
+        <v>-1238.26703576131</v>
       </c>
       <c r="J10">
-        <v>1601.442947288045</v>
+        <v>1637.550857073803</v>
       </c>
       <c r="K10">
-        <v>2096.821395630795</v>
+        <v>2052.97281937276</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>173.0962586208384</v>
+        <v>161.3662459425819</v>
       </c>
       <c r="G11">
-        <v>-65.21844732333089</v>
+        <v>-65.6000317227377</v>
       </c>
       <c r="H11">
-        <v>1104.161736730431</v>
+        <v>1031.715764670275</v>
       </c>
       <c r="I11">
-        <v>-1262.650174164608</v>
+        <v>-1155.564581155828</v>
       </c>
       <c r="J11">
-        <v>1492.182596500511</v>
+        <v>1497.554571666505</v>
       </c>
       <c r="K11">
-        <v>2176.601154676721</v>
+        <v>2232.741425317618</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>134.104871157723</v>
+        <v>144.1014171916942</v>
       </c>
       <c r="G12">
-        <v>-48.48949343926321</v>
+        <v>-52.44651745433129</v>
       </c>
       <c r="H12">
-        <v>1132.374467297713</v>
+        <v>1213.713450606275</v>
       </c>
       <c r="I12">
-        <v>-1179.980841583015</v>
+        <v>-1180.406277378332</v>
       </c>
       <c r="J12">
-        <v>1564.560997044253</v>
+        <v>1528.758246542094</v>
       </c>
       <c r="K12">
-        <v>2247.69237688011</v>
+        <v>2382.576111916831</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>126.5878841480518</v>
+        <v>121.0839594738229</v>
       </c>
       <c r="G13">
-        <v>-32.6898977303973</v>
+        <v>-32.72854668227566</v>
       </c>
       <c r="H13">
-        <v>1285.021583834144</v>
+        <v>1285.822239571982</v>
       </c>
       <c r="I13">
-        <v>-1180.065951868879</v>
+        <v>-1179.519830743752</v>
       </c>
       <c r="J13">
-        <v>1443.948215927832</v>
+        <v>1472.2729099516</v>
       </c>
       <c r="K13">
-        <v>2586.419737802374</v>
+        <v>2516.706382419439</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.9657274572855</v>
+        <v>113.1209403537049</v>
       </c>
       <c r="G14">
-        <v>-16.90501199111106</v>
+        <v>-18.03996369028134</v>
       </c>
       <c r="H14">
-        <v>1366.009749988907</v>
+        <v>1362.558670404781</v>
       </c>
       <c r="I14">
-        <v>-1051.37620848445</v>
+        <v>-1063.300679012562</v>
       </c>
       <c r="J14">
-        <v>1379.115917980722</v>
+        <v>1387.237825319952</v>
       </c>
       <c r="K14">
-        <v>2692.279289808814</v>
+        <v>2752.427103304425</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>104.6512762431159</v>
+        <v>96.67275169590428</v>
       </c>
       <c r="G15">
-        <v>-0.9492796246382729</v>
+        <v>-0.9115099618630056</v>
       </c>
       <c r="H15">
-        <v>1434.695147966439</v>
+        <v>1387.092898359902</v>
       </c>
       <c r="I15">
-        <v>-1098.056693954359</v>
+        <v>-1090.470971107279</v>
       </c>
       <c r="J15">
-        <v>1338.21449183703</v>
+        <v>1346.827889519933</v>
       </c>
       <c r="K15">
-        <v>2664.375446051893</v>
+        <v>2888.720260919921</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.31306716833582</v>
+        <v>94.95498571402521</v>
       </c>
       <c r="G16">
-        <v>16.03229222369538</v>
+        <v>16.04131191981676</v>
       </c>
       <c r="H16">
-        <v>1366.756014479641</v>
+        <v>1426.219165495027</v>
       </c>
       <c r="I16">
-        <v>-1046.318092638623</v>
+        <v>-1013.54129664406</v>
       </c>
       <c r="J16">
-        <v>1301.372263344051</v>
+        <v>1292.594467188659</v>
       </c>
       <c r="K16">
-        <v>2786.736281316067</v>
+        <v>2746.446068814661</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.26114426536614</v>
+        <v>84.13938631228589</v>
       </c>
       <c r="G17">
-        <v>30.85221717549113</v>
+        <v>30.95156028972217</v>
       </c>
       <c r="H17">
-        <v>1440.676953028858</v>
+        <v>1441.196367593349</v>
       </c>
       <c r="I17">
-        <v>-945.7565649342926</v>
+        <v>-971.2494476916673</v>
       </c>
       <c r="J17">
-        <v>1322.480453336217</v>
+        <v>1310.500962187361</v>
       </c>
       <c r="K17">
-        <v>2945.832357666516</v>
+        <v>2976.959159284909</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.17766903666751</v>
+        <v>83.23130213793912</v>
       </c>
       <c r="G18">
-        <v>48.01887425329798</v>
+        <v>47.02849798484469</v>
       </c>
       <c r="H18">
-        <v>1447.398634143251</v>
+        <v>1429.039827822947</v>
       </c>
       <c r="I18">
-        <v>-935.096382414612</v>
+        <v>-921.8160064035482</v>
       </c>
       <c r="J18">
-        <v>1228.52831406405</v>
+        <v>1169.138611068733</v>
       </c>
       <c r="K18">
-        <v>3141.191193774329</v>
+        <v>3134.108475196278</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.39127893647624</v>
+        <v>77.861006852241</v>
       </c>
       <c r="G19">
-        <v>63.42850572203628</v>
+        <v>62.93390064859052</v>
       </c>
       <c r="H19">
-        <v>1556.35837567772</v>
+        <v>1595.926982894573</v>
       </c>
       <c r="I19">
-        <v>-867.1781284339564</v>
+        <v>-845.5974551818803</v>
       </c>
       <c r="J19">
-        <v>1117.611455643616</v>
+        <v>1226.457408092542</v>
       </c>
       <c r="K19">
-        <v>3019.484204311801</v>
+        <v>3079.119329377909</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.02463891166086</v>
+        <v>75.18578528491012</v>
       </c>
       <c r="G20">
-        <v>84.53140834728315</v>
+        <v>83.48176487801186</v>
       </c>
       <c r="H20">
-        <v>1629.543977342973</v>
+        <v>1506.477964936057</v>
       </c>
       <c r="I20">
-        <v>-860.5352078392744</v>
+        <v>-817.7887642666053</v>
       </c>
       <c r="J20">
-        <v>1127.434500602564</v>
+        <v>1175.936493869068</v>
       </c>
       <c r="K20">
-        <v>3012.761327429801</v>
+        <v>3300.981956327399</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.25545803233315</v>
+        <v>73.90011858710017</v>
       </c>
       <c r="G21">
-        <v>93.30819665439476</v>
+        <v>93.63628304893513</v>
       </c>
       <c r="H21">
-        <v>1564.987902948453</v>
+        <v>1551.396798914081</v>
       </c>
       <c r="I21">
-        <v>-820.0451183717697</v>
+        <v>-816.8930242314711</v>
       </c>
       <c r="J21">
-        <v>1042.323289437745</v>
+        <v>1044.934770591675</v>
       </c>
       <c r="K21">
-        <v>3147.595469421581</v>
+        <v>3075.161872827929</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.83953282045333</v>
+        <v>66.71409024258486</v>
       </c>
       <c r="G22">
-        <v>118.7969586014264</v>
+        <v>115.7632283868831</v>
       </c>
       <c r="H22">
-        <v>1676.973786021251</v>
+        <v>1559.321840440134</v>
       </c>
       <c r="I22">
-        <v>-781.0128952744103</v>
+        <v>-711.2818796014509</v>
       </c>
       <c r="J22">
-        <v>977.096469312257</v>
+        <v>978.1497426768364</v>
       </c>
       <c r="K22">
-        <v>3106.779827769171</v>
+        <v>3185.069570044933</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.3633090694903</v>
+        <v>67.80134176449626</v>
       </c>
       <c r="G23">
-        <v>127.9860561517238</v>
+        <v>134.2027279026654</v>
       </c>
       <c r="H23">
-        <v>1592.677948444192</v>
+        <v>1672.933035551693</v>
       </c>
       <c r="I23">
-        <v>-685.9355324250614</v>
+        <v>-698.3972875446341</v>
       </c>
       <c r="J23">
-        <v>995.924370808024</v>
+        <v>988.3178386380031</v>
       </c>
       <c r="K23">
-        <v>3042.165713455815</v>
+        <v>3320.161398028371</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.2653739530647</v>
+        <v>63.47539214331132</v>
       </c>
       <c r="G24">
-        <v>143.6604245959572</v>
+        <v>148.3268300342563</v>
       </c>
       <c r="H24">
-        <v>1667.121076881627</v>
+        <v>1703.201056979222</v>
       </c>
       <c r="I24">
-        <v>-674.5670804471285</v>
+        <v>-642.522222026407</v>
       </c>
       <c r="J24">
-        <v>934.5606776397985</v>
+        <v>913.8836883840155</v>
       </c>
       <c r="K24">
-        <v>3262.314083365988</v>
+        <v>3110.036802592462</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.62256250878634</v>
+        <v>59.57249544744311</v>
       </c>
       <c r="G25">
-        <v>157.6141841675833</v>
+        <v>171.1769935612871</v>
       </c>
       <c r="H25">
-        <v>1666.103965892516</v>
+        <v>1672.928780649879</v>
       </c>
       <c r="I25">
-        <v>-609.8867832044538</v>
+        <v>-608.6273923112293</v>
       </c>
       <c r="J25">
-        <v>848.2761408639799</v>
+        <v>891.52317150439</v>
       </c>
       <c r="K25">
-        <v>3285.084546521428</v>
+        <v>3214.44150708271</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.75885964892787</v>
+        <v>60.03067680094593</v>
       </c>
       <c r="G26">
-        <v>174.0538536254793</v>
+        <v>183.17798744757</v>
       </c>
       <c r="H26">
-        <v>1667.92492160426</v>
+        <v>1692.744261993656</v>
       </c>
       <c r="I26">
-        <v>-522.5279475778766</v>
+        <v>-554.8598917792878</v>
       </c>
       <c r="J26">
-        <v>843.6335663539633</v>
+        <v>861.3799229225175</v>
       </c>
       <c r="K26">
-        <v>3163.556340210513</v>
+        <v>3014.616445134152</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.40530428706727</v>
+        <v>58.01119871707814</v>
       </c>
       <c r="G27">
-        <v>198.1389505267345</v>
+        <v>197.5463998325141</v>
       </c>
       <c r="H27">
-        <v>1717.026698497406</v>
+        <v>1681.673429503957</v>
       </c>
       <c r="I27">
-        <v>-483.2352448868357</v>
+        <v>-497.1062982222974</v>
       </c>
       <c r="J27">
-        <v>818.6575167330233</v>
+        <v>782.800197178982</v>
       </c>
       <c r="K27">
-        <v>2945.278275296789</v>
+        <v>2984.095218523025</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.45607658960469</v>
+        <v>53.99834300450642</v>
       </c>
       <c r="G28">
-        <v>221.9346099239486</v>
+        <v>217.2624826269129</v>
       </c>
       <c r="H28">
-        <v>1664.851181112686</v>
+        <v>1670.565393625669</v>
       </c>
       <c r="I28">
-        <v>-449.1514203766483</v>
+        <v>-448.6931138625725</v>
       </c>
       <c r="J28">
-        <v>714.4176885507252</v>
+        <v>765.9893908478</v>
       </c>
       <c r="K28">
-        <v>2877.589738678844</v>
+        <v>2971.518952368361</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.18001188844529</v>
+        <v>53.86784708372495</v>
       </c>
       <c r="G29">
-        <v>238.3419123921472</v>
+        <v>237.6743003591955</v>
       </c>
       <c r="H29">
-        <v>1746.081450392405</v>
+        <v>1756.673745083932</v>
       </c>
       <c r="I29">
-        <v>-367.5245548755607</v>
+        <v>-393.0803168627687</v>
       </c>
       <c r="J29">
-        <v>678.8493458491679</v>
+        <v>664.378364146654</v>
       </c>
       <c r="K29">
-        <v>3029.516341609192</v>
+        <v>2823.191609616174</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.09086326663939</v>
+        <v>54.15803173482634</v>
       </c>
       <c r="G30">
-        <v>252.0255972776642</v>
+        <v>236.5870401457419</v>
       </c>
       <c r="H30">
-        <v>1703.641287167434</v>
+        <v>1742.353187146286</v>
       </c>
       <c r="I30">
-        <v>-321.9018521410852</v>
+        <v>-321.3571184964743</v>
       </c>
       <c r="J30">
-        <v>653.7124391585163</v>
+        <v>627.2689024645963</v>
       </c>
       <c r="K30">
-        <v>2853.179438867548</v>
+        <v>2689.111851058051</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.20250016313735</v>
+        <v>54.27215053599179</v>
       </c>
       <c r="G31">
-        <v>272.9138160504887</v>
+        <v>252.3035008298959</v>
       </c>
       <c r="H31">
-        <v>1699.2816597515</v>
+        <v>1732.022901153253</v>
       </c>
       <c r="I31">
-        <v>-263.5649084452995</v>
+        <v>-261.1286623833676</v>
       </c>
       <c r="J31">
-        <v>590.2517680919952</v>
+        <v>615.4109384422159</v>
       </c>
       <c r="K31">
-        <v>2598.207943148556</v>
+        <v>2592.853057857333</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.62838583227822</v>
+        <v>48.90550692625034</v>
       </c>
       <c r="G32">
-        <v>288.8003073383562</v>
+        <v>276.162991344512</v>
       </c>
       <c r="H32">
-        <v>1871.046989834364</v>
+        <v>1866.178286955529</v>
       </c>
       <c r="I32">
-        <v>-199.7959078975217</v>
+        <v>-215.041067213033</v>
       </c>
       <c r="J32">
-        <v>517.4898967978177</v>
+        <v>514.2631916811729</v>
       </c>
       <c r="K32">
-        <v>2421.944590834783</v>
+        <v>2498.943503197752</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.64815137854986</v>
+        <v>50.87709044457763</v>
       </c>
       <c r="G33">
-        <v>298.2333119662066</v>
+        <v>289.9320253602563</v>
       </c>
       <c r="H33">
-        <v>1847.05206021533</v>
+        <v>1747.874902875195</v>
       </c>
       <c r="I33">
-        <v>-140.0681074303474</v>
+        <v>-145.8884511526292</v>
       </c>
       <c r="J33">
-        <v>477.6777204432528</v>
+        <v>506.9942150125616</v>
       </c>
       <c r="K33">
-        <v>2258.622141284549</v>
+        <v>2316.049892619372</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.09374137457684</v>
+        <v>50.23531172424038</v>
       </c>
       <c r="G34">
-        <v>324.1761596610805</v>
+        <v>315.2951477825298</v>
       </c>
       <c r="H34">
-        <v>1867.142939556531</v>
+        <v>1732.010993949054</v>
       </c>
       <c r="I34">
-        <v>-80.21204682677002</v>
+        <v>-81.30017744086346</v>
       </c>
       <c r="J34">
-        <v>428.7423877306658</v>
+        <v>452.4866687727283</v>
       </c>
       <c r="K34">
-        <v>2295.168140725274</v>
+        <v>2178.591649113931</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.47279584211126</v>
+        <v>46.97620821099319</v>
       </c>
       <c r="G35">
-        <v>330.6290290946794</v>
+        <v>335.1583088366603</v>
       </c>
       <c r="H35">
-        <v>1905.101201571126</v>
+        <v>1896.142696496474</v>
       </c>
       <c r="I35">
-        <v>-18.05972580032729</v>
+        <v>-18.40693286601527</v>
       </c>
       <c r="J35">
-        <v>405.1706183985486</v>
+        <v>399.6089591996512</v>
       </c>
       <c r="K35">
-        <v>2051.481762760805</v>
+        <v>1963.536365847017</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.30904242312268</v>
+        <v>47.34264449398175</v>
       </c>
       <c r="G36">
-        <v>331.1647957904616</v>
+        <v>334.7810560194807</v>
       </c>
       <c r="H36">
-        <v>1858.5560470819</v>
+        <v>1804.729355525585</v>
       </c>
       <c r="I36">
-        <v>48.44594780514263</v>
+        <v>48.83898648655757</v>
       </c>
       <c r="J36">
-        <v>361.368073358421</v>
+        <v>339.5211880165083</v>
       </c>
       <c r="K36">
-        <v>1778.130067669769</v>
+        <v>1747.262975394314</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.27951189382113</v>
+        <v>47.80613333830585</v>
       </c>
       <c r="G37">
-        <v>348.9846079193085</v>
+        <v>346.029793787346</v>
       </c>
       <c r="H37">
-        <v>1929.163911950054</v>
+        <v>1882.471064297965</v>
       </c>
       <c r="I37">
-        <v>110.5294577677051</v>
+        <v>113.8425058863615</v>
       </c>
       <c r="J37">
-        <v>296.9013945892932</v>
+        <v>296.6141299353295</v>
       </c>
       <c r="K37">
-        <v>1589.234173604591</v>
+        <v>1566.967041192576</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.6680530243508</v>
+        <v>46.50516775546392</v>
       </c>
       <c r="G38">
-        <v>371.7937772609539</v>
+        <v>375.3490110414132</v>
       </c>
       <c r="H38">
-        <v>1809.702023035778</v>
+        <v>1921.785989910413</v>
       </c>
       <c r="I38">
-        <v>185.6974089631889</v>
+        <v>185.1562360949078</v>
       </c>
       <c r="J38">
-        <v>245.368510750078</v>
+        <v>251.2957130242701</v>
       </c>
       <c r="K38">
-        <v>1368.143970885128</v>
+        <v>1456.709576224272</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.69096661755029</v>
+        <v>46.20298300959399</v>
       </c>
       <c r="G39">
-        <v>382.5976623813834</v>
+        <v>376.8556544178618</v>
       </c>
       <c r="H39">
-        <v>1838.868930433806</v>
+        <v>1807.217103788871</v>
       </c>
       <c r="I39">
-        <v>254.1939556710009</v>
+        <v>252.5885844734803</v>
       </c>
       <c r="J39">
-        <v>204.8522425588694</v>
+        <v>199.2487291447443</v>
       </c>
       <c r="K39">
-        <v>1120.474408069479</v>
+        <v>1104.653623673601</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.70081601225845</v>
+        <v>42.50211039281893</v>
       </c>
       <c r="G40">
-        <v>420.2492793686755</v>
+        <v>392.0683802956809</v>
       </c>
       <c r="H40">
-        <v>1793.957429103234</v>
+        <v>1945.669480759383</v>
       </c>
       <c r="I40">
-        <v>332.0378877519832</v>
+        <v>338.132877238463</v>
       </c>
       <c r="J40">
-        <v>156.0859583837135</v>
+        <v>149.0375323469529</v>
       </c>
       <c r="K40">
-        <v>860.2743447847471</v>
+        <v>865.2383686576155</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.23883429067721</v>
+        <v>43.46657522528791</v>
       </c>
       <c r="G41">
-        <v>436.9949084788706</v>
+        <v>408.3405942783639</v>
       </c>
       <c r="H41">
-        <v>1810.074061996406</v>
+        <v>1944.828986681417</v>
       </c>
       <c r="I41">
-        <v>408.3737490996972</v>
+        <v>416.4136154818075</v>
       </c>
       <c r="J41">
-        <v>98.91590237582976</v>
+        <v>100.6276612298252</v>
       </c>
       <c r="K41">
-        <v>652.4364615488946</v>
+        <v>648.2598195382467</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.48687634724773</v>
+        <v>42.23291645884388</v>
       </c>
       <c r="G42">
-        <v>441.655316258613</v>
+        <v>446.7422503696356</v>
       </c>
       <c r="H42">
-        <v>1935.10885451113</v>
+        <v>1909.699900460315</v>
       </c>
       <c r="I42">
-        <v>456.1256396748977</v>
+        <v>486.2406299323978</v>
       </c>
       <c r="J42">
-        <v>51.87556603435126</v>
+        <v>52.36389295465978</v>
       </c>
       <c r="K42">
-        <v>330.1238121236697</v>
+        <v>327.2914504739937</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>44.11305974905159</v>
+        <v>40.09449762477787</v>
       </c>
       <c r="G43">
-        <v>466.4272036038922</v>
+        <v>459.9805743627438</v>
       </c>
       <c r="H43">
-        <v>1962.40659986907</v>
+        <v>1960.63116154362</v>
       </c>
       <c r="I43">
-        <v>536.7420883789008</v>
+        <v>557.6830620991319</v>
       </c>
       <c r="J43">
-        <v>5.162432648535857</v>
+        <v>5.410128514433482</v>
       </c>
       <c r="K43">
-        <v>32.80258605550945</v>
+        <v>34.28575647131756</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.38107797167172</v>
+        <v>41.28385523445004</v>
       </c>
       <c r="G44">
-        <v>501.6061522470245</v>
+        <v>500.452557887135</v>
       </c>
       <c r="H44">
-        <v>1958.63304070516</v>
+        <v>1927.502754649555</v>
       </c>
       <c r="I44">
-        <v>645.5501534820525</v>
+        <v>638.5007449441074</v>
       </c>
       <c r="J44">
-        <v>-44.57513519516552</v>
+        <v>-41.20790164492087</v>
       </c>
       <c r="K44">
-        <v>-294.3906225379556</v>
+        <v>-279.6504271870502</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.55564051201682</v>
+        <v>39.33245100155144</v>
       </c>
       <c r="G45">
-        <v>471.8334353811476</v>
+        <v>504.6383636794156</v>
       </c>
       <c r="H45">
-        <v>1860.851492480842</v>
+        <v>1884.53827132289</v>
       </c>
       <c r="I45">
-        <v>748.1665576207964</v>
+        <v>709.310440862187</v>
       </c>
       <c r="J45">
-        <v>-94.96412967775629</v>
+        <v>-91.25336699230488</v>
       </c>
       <c r="K45">
-        <v>-602.6610972319526</v>
+        <v>-608.6901517682844</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.47317593531147</v>
+        <v>42.40111332551569</v>
       </c>
       <c r="G46">
-        <v>528.8779612833358</v>
+        <v>501.6826028397284</v>
       </c>
       <c r="H46">
-        <v>1911.160225357333</v>
+        <v>1870.723874787639</v>
       </c>
       <c r="I46">
-        <v>830.7949934666686</v>
+        <v>821.4149011431596</v>
       </c>
       <c r="J46">
-        <v>-135.6275344898071</v>
+        <v>-141.6385508789308</v>
       </c>
       <c r="K46">
-        <v>-962.7749656248523</v>
+        <v>-1006.547465786794</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.74049337673258</v>
+        <v>39.89242075950593</v>
       </c>
       <c r="G47">
-        <v>531.6622132507262</v>
+        <v>527.6009568586379</v>
       </c>
       <c r="H47">
-        <v>1956.510002723536</v>
+        <v>1951.770690872995</v>
       </c>
       <c r="I47">
-        <v>855.2480745771768</v>
+        <v>897.2755012703973</v>
       </c>
       <c r="J47">
-        <v>-181.4305271996903</v>
+        <v>-197.4898741237937</v>
       </c>
       <c r="K47">
-        <v>-1281.51008664395</v>
+        <v>-1307.637818304142</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.04842831531075</v>
+        <v>40.56549777369712</v>
       </c>
       <c r="G48">
-        <v>548.8087858949802</v>
+        <v>564.9140904984519</v>
       </c>
       <c r="H48">
-        <v>1907.307097802055</v>
+        <v>2020.821286328323</v>
       </c>
       <c r="I48">
-        <v>966.6789126102749</v>
+        <v>994.0534267007505</v>
       </c>
       <c r="J48">
-        <v>-237.6127923618828</v>
+        <v>-241.0532852582595</v>
       </c>
       <c r="K48">
-        <v>-1641.576687605682</v>
+        <v>-1635.617200617762</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.85876955923258</v>
+        <v>39.37484973496336</v>
       </c>
       <c r="G49">
-        <v>545.4799887479429</v>
+        <v>537.0761233313528</v>
       </c>
       <c r="H49">
-        <v>1924.033771676</v>
+        <v>1878.761347496191</v>
       </c>
       <c r="I49">
-        <v>1072.803795633077</v>
+        <v>1059.575945785467</v>
       </c>
       <c r="J49">
-        <v>-288.9452461354765</v>
+        <v>-288.4262878106268</v>
       </c>
       <c r="K49">
-        <v>-2115.031068234898</v>
+        <v>-2044.271854463693</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.35881260896564</v>
+        <v>37.97236008708583</v>
       </c>
       <c r="G50">
-        <v>565.2170025917758</v>
+        <v>605.4867994554112</v>
       </c>
       <c r="H50">
-        <v>1968.350933463606</v>
+        <v>1940.912945392906</v>
       </c>
       <c r="I50">
-        <v>1160.851408858602</v>
+        <v>1131.199607595705</v>
       </c>
       <c r="J50">
-        <v>-323.3336108802857</v>
+        <v>-319.9537666602041</v>
       </c>
       <c r="K50">
-        <v>-2417.835495040631</v>
+        <v>-2509.118111258016</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.79528068583479</v>
+        <v>38.89524588107795</v>
       </c>
       <c r="G51">
-        <v>622.1378634709306</v>
+        <v>570.9802247763046</v>
       </c>
       <c r="H51">
-        <v>1920.29068729062</v>
+        <v>1885.102821685046</v>
       </c>
       <c r="I51">
-        <v>1196.387850715282</v>
+        <v>1265.91195273839</v>
       </c>
       <c r="J51">
-        <v>-384.6285292992602</v>
+        <v>-379.3912955722249</v>
       </c>
       <c r="K51">
-        <v>-2790.547351491178</v>
+        <v>-3008.985829961282</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.5847269968025</v>
+        <v>36.29801194775651</v>
       </c>
       <c r="G52">
-        <v>614.6004730844538</v>
+        <v>622.4602645305127</v>
       </c>
       <c r="H52">
-        <v>1930.286090474722</v>
+        <v>1903.501554178959</v>
       </c>
       <c r="I52">
-        <v>1419.746500791681</v>
+        <v>1329.460312714557</v>
       </c>
       <c r="J52">
-        <v>-449.7917415241515</v>
+        <v>-435.3967411350783</v>
       </c>
       <c r="K52">
-        <v>-3499.5667982843</v>
+        <v>-3476.392648193711</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.58458962162068</v>
+        <v>37.97858995376772</v>
       </c>
       <c r="G53">
-        <v>637.6943418402925</v>
+        <v>621.6266092927874</v>
       </c>
       <c r="H53">
-        <v>1944.303244444924</v>
+        <v>2014.685697112911</v>
       </c>
       <c r="I53">
-        <v>1494.443659356685</v>
+        <v>1483.655695369813</v>
       </c>
       <c r="J53">
-        <v>-462.8494357132127</v>
+        <v>-492.3882453558869</v>
       </c>
       <c r="K53">
-        <v>-3920.016591133902</v>
+        <v>-3881.378530151891</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.49440136521587</v>
+        <v>36.49579456687967</v>
       </c>
       <c r="G54">
-        <v>638.8297564355146</v>
+        <v>616.0140856867326</v>
       </c>
       <c r="H54">
-        <v>2035.040603941897</v>
+        <v>1929.577211186574</v>
       </c>
       <c r="I54">
-        <v>1521.584365413076</v>
+        <v>1564.955078990797</v>
       </c>
       <c r="J54">
-        <v>-532.2595953146862</v>
+        <v>-533.0062719128109</v>
       </c>
       <c r="K54">
-        <v>-4303.876196296935</v>
+        <v>-4403.131134825874</v>
       </c>
     </row>
   </sheetData>
